--- a/biology/Botanique/Jardin_botanique_de_Rome/Jardin_botanique_de_Rome.xlsx
+++ b/biology/Botanique/Jardin_botanique_de_Rome/Jardin_botanique_de_Rome.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le jardin botanique de Rome est situé sur les pentes du Janicule, dans le rione du Trastevere, dans l'ancien parc de la Villa Corsini, qui fut un temps la résidence de Christine de Suède.
@@ -513,7 +525,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'ancêtre de l'actuel jardin botanique de Rome est le Simpliciarius Pontificius Vaticanus (c'est-à-dire le « jardin des simples » où se cultivaient les plantes utiles et médicinales, toujours présent dans les monastères) mentionné sous le pontificat de Boniface VIII. 
 Un peu plus tard, à la fin du XIIIe siècle, une inscription aujourd'hui au Capitole mentionne un Pomerius voulu par le pape Nicolas III sur la colline du Vatican : il s'agissait toutefois encore d'un terrain agricole - vigne, verger, herbes médicinales - sur le site occupé de nos jours par les jardins et les palais du Vatican, destiné aux cultures pour le service de la cour pontificale.
@@ -551,7 +565,9 @@
           <t>Organisation actuelle et espèces présentes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le jardin botanique de Rome a actuellement une extension de 12 hectares, dans une situation abritée sur les pentes du Janicule tournées vers le Nord-Est et ensoleillée dans sa partie plane. Le réseau d'irrigation et quelques ruisseaux consacrés aux plantes aquatiques sont alimentés par l'aqueduc de l'Acqua Paola qui domine le site.
 « Le jardin (selon le site officiel)  a des fonctions didactiques, d'éducation environnementale et de recherche scientifique. On y organise des expositions, des cours, des conférences et des congrès et on y reçoit annuellement presque cent mille visiteurs. L'activité tournée vers les écoles est très intense avec environ 250 visites guidées. Le jardin est en outre un site de recherches hautement spécialisées sur l'écologie du milieu urbain. »
@@ -590,7 +606,9 @@
           <t>Quelques images</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			La vallée des fougères
